--- a/07_LASER_DIFFRACTION/LaserDiffraction.xlsx
+++ b/07_LASER_DIFFRACTION/LaserDiffraction.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9961DDEF-21D7-422C-8FC8-09D89F2F8D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530B0504-D67B-407A-AF99-086F59316770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Diffrazione" sheetId="15" r:id="rId1"/>
-    <sheet name="Regressione lineare - Prova 1" sheetId="16" r:id="rId2"/>
-    <sheet name="Regressione lineare - Prova 2" sheetId="17" r:id="rId3"/>
+    <sheet name="Dati sperimentali e fit" sheetId="15" r:id="rId1"/>
+    <sheet name="Fit 1 fenditura @ b = 0.1 mm" sheetId="16" r:id="rId2"/>
+    <sheet name="Fit 2 fend. @ b,d = 0.2,0.3 mm" sheetId="17" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataSignature="AMtx7mj85p6VkThQu6g/S0F5N8W77tLb5w=="/>
     </ext>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="51">
   <si>
     <t xml:space="preserve"> λ [nm]</t>
   </si>
@@ -90,9 +100,6 @@
   </si>
   <si>
     <t>FENDITURE DOPPIE, CON LED ROSSO</t>
-  </si>
-  <si>
-    <t>OUTPUT RIEPILOGO</t>
   </si>
   <si>
     <t>Statistica della regressione</t>
@@ -173,10 +180,16 @@
     <t>Dati fit</t>
   </si>
   <si>
-    <t>I valori di interesse sono quelli evidenziati in giallo, che rappresentano la pendenza λp della curva (sinϑ)(p)</t>
+    <t>d_regressione</t>
   </si>
   <si>
-    <t>d_regressione</t>
+    <t>Regressione lineare della prova con fenditura singola a spaziatura variabile e LED verde</t>
+  </si>
+  <si>
+    <t>Regressione lineare della prova con fenditura doppia e LED verde</t>
+  </si>
+  <si>
+    <t>Regressione lineare della prova con fenditura doppia - Fit della distanza d e LED verde</t>
   </si>
 </sst>
 </file>
@@ -206,6 +219,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
@@ -564,7 +578,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1"/>
@@ -655,15 +669,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,6 +681,24 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -728,20 +751,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Diffrazione da fenditura singola</a:t>
+              <a:t>Diffrazione da fenditura singola con LASER verde</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> con LASER verde</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -765,7 +783,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -808,9 +826,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5.0000000000000012E-4"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Diffrazione!$A$5:$A$13</c:f>
+              <c:f>'Dati sperimentali e fit'!$A$5:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -846,7 +904,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Diffrazione!$C$5:$C$13</c:f>
+              <c:f>'Dati sperimentali e fit'!$C$5:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -917,9 +975,44 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0600700000000003E-4"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Regressione lineare - Prova 1'!$T$4:$T$12</c:f>
+              <c:f>'Fit 1 fenditura @ b = 0.1 mm'!$T$4:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -955,7 +1048,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Regressione lineare - Prova 1'!$U$4:$U$12</c:f>
+              <c:f>'Fit 1 fenditura @ b = 0.1 mm'!$U$4:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1042,7 +1135,7 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1074,7 +1167,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1112,7 +1205,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1159,7 +1252,7 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1196,7 +1289,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1234,7 +1327,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1276,7 +1369,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1316,7 +1409,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -1357,7 +1452,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1389,7 +1484,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1432,9 +1527,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5.0000000000000012E-4"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Diffrazione!$Q$30:$Q$33</c:f>
+              <c:f>'Dati sperimentali e fit'!$Q$30:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1455,7 +1590,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Diffrazione!$T$30:$T$33</c:f>
+              <c:f>'Dati sperimentali e fit'!$T$30:$T$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1511,9 +1646,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.9360000000000004E-4"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Regressione lineare - Prova 2'!$T$3:$T$6</c:f>
+              <c:f>'Fit 2 fend. @ b,d = 0.2,0.3 mm'!$T$4:$T$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1534,21 +1709,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Regressione lineare - Prova 2'!$U$3:$U$6</c:f>
+              <c:f>'Fit 2 fend. @ b,d = 0.2,0.3 mm'!$U$4:$U$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.7499299733346303E-3</c:v>
+                  <c:v>2.7499299733346298E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4998599466692605E-3</c:v>
+                  <c:v>5.4998599466692596E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2497899200038912E-3</c:v>
+                  <c:v>8.2497899200038895E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0999719893338521E-2</c:v>
+                  <c:v>1.0999719893338519E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,7 +1781,7 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1638,7 +1813,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1676,7 +1851,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1723,7 +1898,7 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1760,7 +1935,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1798,7 +1973,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1840,7 +2015,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1880,7 +2055,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -1921,7 +2098,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1953,7 +2130,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1996,9 +2173,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5.0000000000000012E-4"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Diffrazione!$Q$30:$Q$33</c:f>
+              <c:f>'Dati sperimentali e fit'!$Q$30:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2019,7 +2236,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Diffrazione!$U$30:$U$33</c:f>
+              <c:f>'Dati sperimentali e fit'!$U$30:$U$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2075,9 +2292,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="2.6428430876784109E-4"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Regressione lineare - Prova 2'!$T$24:$T$27</c:f>
+              <c:f>'Fit 2 fend. @ b,d = 0.2,0.3 mm'!$T$25:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2098,7 +2355,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Regressione lineare - Prova 2'!$U$24:$U$27</c:f>
+              <c:f>'Fit 2 fend. @ b,d = 0.2,0.3 mm'!$U$25:$U$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2170,7 +2427,7 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -2202,7 +2459,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -2240,7 +2497,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -2287,7 +2544,7 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -2324,7 +2581,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -2362,7 +2619,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -2404,7 +2661,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -2444,7 +2701,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -4450,7 +4709,7 @@
   <dimension ref="A1:BA1015"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4473,27 +4732,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U2"/>
@@ -5400,39 +5659,39 @@
       <c r="AJ16"/>
     </row>
     <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="78"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="84"/>
       <c r="AF17"/>
       <c r="AG17"/>
       <c r="AH17"/>
@@ -6880,35 +7139,35 @@
       <c r="AI35" s="2"/>
     </row>
     <row r="37" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
-      <c r="V37" s="78"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="78"/>
-      <c r="Z37" s="78"/>
-      <c r="AA37" s="78"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="84"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="84"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="84"/>
+      <c r="W37" s="84"/>
+      <c r="X37" s="84"/>
+      <c r="Y37" s="84"/>
+      <c r="Z37" s="84"/>
+      <c r="AA37" s="84"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -7998,39 +8257,39 @@
       <c r="AQ51"/>
     </row>
     <row r="53" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
-      <c r="Q53" s="78"/>
-      <c r="R53" s="78"/>
-      <c r="S53" s="78"/>
-      <c r="T53" s="78"/>
-      <c r="U53" s="78"/>
-      <c r="V53" s="78"/>
-      <c r="W53" s="78"/>
-      <c r="X53" s="78"/>
-      <c r="Y53" s="78"/>
-      <c r="Z53" s="78"/>
-      <c r="AA53" s="78"/>
-      <c r="AB53" s="78"/>
-      <c r="AC53" s="78"/>
-      <c r="AD53" s="78"/>
-      <c r="AE53" s="78"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="84"/>
+      <c r="U53" s="84"/>
+      <c r="V53" s="84"/>
+      <c r="W53" s="84"/>
+      <c r="X53" s="84"/>
+      <c r="Y53" s="84"/>
+      <c r="Z53" s="84"/>
+      <c r="AA53" s="84"/>
+      <c r="AB53" s="84"/>
+      <c r="AC53" s="84"/>
+      <c r="AD53" s="84"/>
+      <c r="AE53" s="84"/>
     </row>
     <row r="54" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AR54"/>
@@ -45548,7 +45807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B379751-D99B-4BE3-AFE9-5A972A8055A5}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45565,17 +45826,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="A1" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
       <c r="J1" s="70"/>
       <c r="K1" s="70"/>
     </row>
@@ -45594,7 +45855,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="71"/>
       <c r="C3" s="70"/>
@@ -45606,25 +45867,23 @@
       <c r="I3" s="70"/>
       <c r="J3" s="70"/>
       <c r="K3" s="70"/>
-      <c r="T3" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="80"/>
+      <c r="T3" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="85"/>
     </row>
     <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="72">
         <v>0.99961133793330381</v>
       </c>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
-      <c r="E4" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
       <c r="H4" s="70"/>
       <c r="I4" s="70"/>
       <c r="J4" s="70"/>
@@ -45633,22 +45892,22 @@
         <v>1</v>
       </c>
       <c r="U4">
-        <f>(T4/$B$20)*Diffrazione!$B$3*10^(-9)</f>
+        <f>(T4/$B$20)*'Dati sperimentali e fit'!$B$3*10^(-9)</f>
         <v>5.0315172585956979E-3</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="72">
         <v>0.99922282692480979</v>
       </c>
       <c r="C5" s="70"/>
       <c r="D5" s="70"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
       <c r="H5" s="70"/>
       <c r="I5" s="70"/>
       <c r="J5" s="70"/>
@@ -45657,13 +45916,13 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <f>(T5/$B$20)*Diffrazione!$B$3*10^(-9)</f>
+        <f>(T5/$B$20)*'Dati sperimentali e fit'!$B$3*10^(-9)</f>
         <v>1.0063034517191396E-2</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="72">
         <v>0.99911180219978257</v>
@@ -45681,13 +45940,13 @@
         <v>3</v>
       </c>
       <c r="U6">
-        <f>(T6/$B$20)*Diffrazione!$B$3*10^(-9)</f>
+        <f>(T6/$B$20)*'Dati sperimentali e fit'!$B$3*10^(-9)</f>
         <v>1.5094551775787095E-2</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="72">
         <v>4.1082160183563641E-4</v>
@@ -45705,13 +45964,13 @@
         <v>4</v>
       </c>
       <c r="U7">
-        <f>(T7/$B$20)*Diffrazione!$B$3*10^(-9)</f>
+        <f>(T7/$B$20)*'Dati sperimentali e fit'!$B$3*10^(-9)</f>
         <v>2.0126069034382792E-2</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="73">
         <v>9</v>
@@ -45728,7 +45987,7 @@
         <v>5</v>
       </c>
       <c r="U8">
-        <f>(T8/$B$20)*Diffrazione!$B$3*10^(-9)</f>
+        <f>(T8/$B$20)*'Dati sperimentali e fit'!$B$3*10^(-9)</f>
         <v>2.5157586292978488E-2</v>
       </c>
     </row>
@@ -45748,13 +46007,13 @@
         <v>6</v>
       </c>
       <c r="U9">
-        <f>(T9/$B$20)*Diffrazione!$B$3*10^(-9)</f>
+        <f>(T9/$B$20)*'Dati sperimentali e fit'!$B$3*10^(-9)</f>
         <v>3.0189103551574191E-2</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
@@ -45769,26 +46028,26 @@
         <v>7</v>
       </c>
       <c r="U10">
-        <f>(T10/$B$20)*Diffrazione!$B$3*10^(-9)</f>
+        <f>(T10/$B$20)*'Dati sperimentali e fit'!$B$3*10^(-9)</f>
         <v>3.5220620810169891E-2</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="74"/>
       <c r="B11" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="D11" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="E11" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="F11" s="74" t="s">
         <v>36</v>
-      </c>
-      <c r="F11" s="74" t="s">
-        <v>37</v>
       </c>
       <c r="G11" s="70"/>
       <c r="H11" s="70"/>
@@ -45799,13 +46058,13 @@
         <v>8</v>
       </c>
       <c r="U11">
-        <f>(T11/$B$20)*Diffrazione!$B$3*10^(-9)</f>
+        <f>(T11/$B$20)*'Dati sperimentali e fit'!$B$3*10^(-9)</f>
         <v>4.0252138068765583E-2</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="72">
         <v>1</v>
@@ -45831,13 +46090,13 @@
         <v>9</v>
       </c>
       <c r="U12">
-        <f>(T12/$B$20)*Diffrazione!$B$3*10^(-9)</f>
+        <f>(T12/$B$20)*'Dati sperimentali e fit'!$B$3*10^(-9)</f>
         <v>4.5283655327361283E-2</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="72">
         <v>7</v>
@@ -45858,7 +46117,7 @@
     </row>
     <row r="14" spans="1:21" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="73">
         <v>8</v>
@@ -45891,35 +46150,35 @@
     <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="74"/>
       <c r="B16" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="74" t="s">
+      <c r="E16" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="F16" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="G16" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="74" t="s">
+      <c r="H16" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="74" t="s">
+      <c r="I16" s="74" t="s">
         <v>43</v>
-      </c>
-      <c r="I16" s="74" t="s">
-        <v>44</v>
       </c>
       <c r="J16" s="70"/>
       <c r="K16" s="70"/>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="72">
         <v>-2.456079916506558E-4</v>
@@ -45950,7 +46209,7 @@
     </row>
     <row r="18" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="75">
         <v>5.0315172585956988E-3</v>
@@ -45994,14 +46253,14 @@
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="76">
-        <f>1/(B18/(Diffrazione!B3*10^(-9)))</f>
+        <v>45</v>
+      </c>
+      <c r="B20" s="88">
+        <f>1/(B18/('Dati sperimentali e fit'!B3*10^(-9)))</f>
         <v>1.0571363917937824E-4</v>
       </c>
-      <c r="C20" s="76">
-        <f>LOG(C18/(Diffrazione!B3*10^(-9)))*C18</f>
+      <c r="C20" s="88">
+        <f>LOG(C18/('Dati sperimentali e fit'!B3*10^(-9)))*C18</f>
         <v>1.0600726111417227E-4</v>
       </c>
       <c r="D20" s="70"/>
@@ -46106,8 +46365,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E4:G5"/>
     <mergeCell ref="T3:U3"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46119,7 +46378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22006EEA-A791-4B89-BA6E-1D06C2FB3AD5}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:I22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -46135,523 +46396,553 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+    </row>
+    <row r="2" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T2" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="89"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T2" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="80"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="B3" s="81"/>
+      <c r="T3" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="T3">
+      <c r="B4" s="78">
+        <v>0.99507836364703905</v>
+      </c>
+      <c r="T4" s="91">
         <v>1</v>
       </c>
-      <c r="U3">
-        <f>T3*$B$18</f>
-        <v>2.7499299733346303E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="U4" s="91">
+        <f>T4*$B$18</f>
+        <v>2.7499299733346298E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="81">
-        <v>0.99507836364703905</v>
-      </c>
-      <c r="T4">
+      <c r="B5" s="78">
+        <v>0.99018094979846893</v>
+      </c>
+      <c r="T5" s="91">
         <v>2</v>
       </c>
-      <c r="U4">
-        <f t="shared" ref="U4:U6" si="0">T4*$B$18</f>
-        <v>5.4998599466692605E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="U5" s="91">
+        <f t="shared" ref="U5:U7" si="0">T5*$B$18</f>
+        <v>5.4998599466692596E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="81">
-        <v>0.99018094979846893</v>
-      </c>
-      <c r="T5">
+      <c r="B6" s="78">
+        <v>0.98527142469770346</v>
+      </c>
+      <c r="T6" s="91">
         <v>3</v>
       </c>
-      <c r="U5">
+      <c r="U6" s="91">
         <f t="shared" si="0"/>
-        <v>8.2497899200038912E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+        <v>8.2497899200038895E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="81">
-        <v>0.98527142469770346</v>
-      </c>
-      <c r="T6">
+      <c r="B7" s="78">
+        <v>4.3298125603574413E-4</v>
+      </c>
+      <c r="T7" s="91">
         <v>4</v>
       </c>
-      <c r="U6">
+      <c r="U7" s="91">
         <f t="shared" si="0"/>
-        <v>1.0999719893338521E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+        <v>1.0999719893338519E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="81">
-        <v>4.3298125603574413E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="82">
+      <c r="B8" s="79">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="80"/>
+      <c r="B11" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="78" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="83" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="s">
+      <c r="B12" s="78">
+        <v>1</v>
+      </c>
+      <c r="C12" s="78">
+        <v>3.7810574291221002E-5</v>
+      </c>
+      <c r="D12" s="78">
+        <v>3.7810574291221002E-5</v>
+      </c>
+      <c r="E12" s="78">
+        <v>201.68568842719017</v>
+      </c>
+      <c r="F12" s="78">
+        <v>4.9216363529609375E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="81">
-        <v>1</v>
-      </c>
-      <c r="C12" s="81">
-        <v>3.7810574291221002E-5</v>
-      </c>
-      <c r="D12" s="81">
-        <v>3.7810574291221002E-5</v>
-      </c>
-      <c r="E12" s="81">
-        <v>201.68568842719017</v>
-      </c>
-      <c r="F12" s="81">
-        <v>4.9216363529609375E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
+      <c r="B13" s="78">
+        <v>2</v>
+      </c>
+      <c r="C13" s="78">
+        <v>3.749455361565812E-7</v>
+      </c>
+      <c r="D13" s="78">
+        <v>1.874727680782906E-7</v>
+      </c>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+    </row>
+    <row r="14" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="81">
-        <v>2</v>
-      </c>
-      <c r="C13" s="81">
-        <v>3.749455361565812E-7</v>
-      </c>
-      <c r="D13" s="81">
-        <v>1.874727680782906E-7</v>
-      </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-    </row>
-    <row r="14" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="82">
+      <c r="B14" s="79">
         <v>3</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="79">
         <v>3.8185519827377582E-5</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
     </row>
     <row r="15" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="86" t="s">
+      <c r="A16" s="80"/>
+      <c r="B16" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="83" t="s">
+      <c r="E16" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="F16" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="G16" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="83" t="s">
+      <c r="H16" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="83" t="s">
+      <c r="I16" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="83" t="s">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="78">
+        <v>-2.4990555273259312E-4</v>
+      </c>
+      <c r="C17" s="78">
+        <v>5.3029157273846615E-4</v>
+      </c>
+      <c r="D17" s="78">
+        <v>-0.47126065278024648</v>
+      </c>
+      <c r="E17" s="78">
+        <v>0.68385909659523347</v>
+      </c>
+      <c r="F17" s="78">
+        <v>-2.5315660357388909E-3</v>
+      </c>
+      <c r="G17" s="78">
+        <v>2.0317549302737046E-3</v>
+      </c>
+      <c r="H17" s="78">
+        <v>-2.5315660357388909E-3</v>
+      </c>
+      <c r="I17" s="78">
+        <v>2.0317549302737046E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="79" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="81">
-        <v>-2.4990555273259312E-4</v>
-      </c>
-      <c r="C17" s="81">
-        <v>5.3029157273846615E-4</v>
-      </c>
-      <c r="D17" s="81">
-        <v>-0.47126065278024648</v>
-      </c>
-      <c r="E17" s="81">
-        <v>0.68385909659523347</v>
-      </c>
-      <c r="F17" s="81">
-        <v>-2.5315660357388909E-3</v>
-      </c>
-      <c r="G17" s="81">
-        <v>2.0317549302737046E-3</v>
-      </c>
-      <c r="H17" s="81">
-        <v>-2.5315660357388909E-3</v>
-      </c>
-      <c r="I17" s="81">
-        <v>2.0317549302737046E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="85">
-        <v>2.7499299733346303E-3</v>
-      </c>
-      <c r="C18" s="85">
+      <c r="B18" s="82">
+        <v>2.7499299733346298E-3</v>
+      </c>
+      <c r="C18" s="82">
         <v>1.9363510429583298E-4</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="79">
         <v>14.201608656317431</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="79">
         <v>4.9216363529609375E-3</v>
       </c>
-      <c r="F18" s="82">
+      <c r="F18" s="79">
         <v>1.9167853632608423E-3</v>
       </c>
-      <c r="G18" s="82">
+      <c r="G18" s="79">
         <v>3.5830745834084183E-3</v>
       </c>
-      <c r="H18" s="82">
+      <c r="H18" s="79">
         <v>1.9167853632608423E-3</v>
       </c>
-      <c r="I18" s="82">
+      <c r="I18" s="79">
         <v>3.5830745834084183E-3</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="88">
+        <f>1/(B18/('Dati sperimentali e fit'!B3*10^(-9)))</f>
+        <v>1.9342310719098262E-4</v>
+      </c>
+      <c r="C20" s="88">
+        <f>LOG(C18/('Dati sperimentali e fit'!B3*10^(-9)))*C18</f>
+        <v>4.9592934194065189E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+    </row>
+    <row r="23" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T23" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="76">
-        <f>1/(B18/(Diffrazione!B3*10^(-9)))</f>
-        <v>1.9342310719098257E-4</v>
-      </c>
-      <c r="C20" s="76">
-        <f>LOG(C18/(Diffrazione!B3*10^(-9)))*C18</f>
-        <v>4.9592934194065189E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="U23" s="89"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="81" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T23" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="U23" s="80"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="B24" s="81"/>
+      <c r="T24" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="T24">
+      <c r="B25" s="78">
+        <v>0.98889924880369795</v>
+      </c>
+      <c r="T25" s="91">
         <v>1</v>
       </c>
-      <c r="U24">
-        <f>T24*$B$39</f>
+      <c r="U25" s="91">
+        <f>T25*$B$39</f>
         <v>2.4874585196640524E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="81">
-        <v>0.98889924880369795</v>
-      </c>
-      <c r="T25">
+      <c r="B26" s="78">
+        <v>0.97792172428451807</v>
+      </c>
+      <c r="T26" s="91">
         <v>2</v>
       </c>
-      <c r="U25">
-        <f t="shared" ref="U25:U27" si="1">T25*$B$39</f>
+      <c r="U26" s="91">
+        <f t="shared" ref="U26:U28" si="1">T26*$B$39</f>
         <v>4.9749170393281047E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="81">
-        <v>0.97792172428451807</v>
-      </c>
-      <c r="T26">
+      <c r="B27" s="78">
+        <v>0.96688258642677716</v>
+      </c>
+      <c r="T27" s="91">
         <v>3</v>
       </c>
-      <c r="U26">
+      <c r="U27" s="91">
         <f t="shared" si="1"/>
         <v>7.4623755589921566E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="81">
-        <v>0.96688258642677716</v>
-      </c>
-      <c r="T27">
+      <c r="B28" s="78">
+        <v>5.9095767979143552E-4</v>
+      </c>
+      <c r="T28" s="91">
         <v>4</v>
       </c>
-      <c r="U27">
+      <c r="U28" s="91">
         <f t="shared" si="1"/>
         <v>9.9498340786562094E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
+    <row r="29" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="81">
-        <v>5.9095767979143552E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="82">
+      <c r="B29" s="79">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="80"/>
+      <c r="B32" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="78" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="83" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="B33" s="78">
+        <v>1</v>
+      </c>
+      <c r="C33" s="78">
+        <v>3.0937249435246403E-5</v>
+      </c>
+      <c r="D33" s="78">
+        <v>3.0937249435246403E-5</v>
+      </c>
+      <c r="E33" s="78">
+        <v>88.586784302070129</v>
+      </c>
+      <c r="F33" s="78">
+        <v>1.1100751196302097E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="81">
-        <v>1</v>
-      </c>
-      <c r="C33" s="81">
-        <v>3.0937249435246403E-5</v>
-      </c>
-      <c r="D33" s="81">
-        <v>3.0937249435246403E-5</v>
-      </c>
-      <c r="E33" s="81">
-        <v>88.586784302070129</v>
-      </c>
-      <c r="F33" s="81">
-        <v>1.1100751196302097E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
+      <c r="B34" s="78">
+        <v>2</v>
+      </c>
+      <c r="C34" s="78">
+        <v>6.9846195860895362E-7</v>
+      </c>
+      <c r="D34" s="78">
+        <v>3.4923097930447681E-7</v>
+      </c>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="81">
-        <v>2</v>
-      </c>
-      <c r="C34" s="81">
-        <v>6.9846195860895362E-7</v>
-      </c>
-      <c r="D34" s="81">
-        <v>3.4923097930447681E-7</v>
-      </c>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="82">
+      <c r="B35" s="79">
         <v>3</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="79">
         <v>3.1635711393855355E-5</v>
       </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
     </row>
     <row r="36" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="86" t="s">
+      <c r="A37" s="80"/>
+      <c r="B37" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="83" t="s">
+      <c r="E37" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="83" t="s">
+      <c r="F37" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="83" t="s">
+      <c r="G37" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="83" t="s">
+      <c r="H37" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="83" t="s">
+      <c r="I37" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="83" t="s">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="78">
+        <v>-4.9994889639472153E-4</v>
+      </c>
+      <c r="C38" s="78">
+        <v>7.2377238753403353E-4</v>
+      </c>
+      <c r="D38" s="78">
+        <v>-0.69075431034071155</v>
+      </c>
+      <c r="E38" s="78">
+        <v>0.56111757036035625</v>
+      </c>
+      <c r="F38" s="78">
+        <v>-3.6140901353353175E-3</v>
+      </c>
+      <c r="G38" s="78">
+        <v>2.6141923425458745E-3</v>
+      </c>
+      <c r="H38" s="78">
+        <v>-3.6140901353353175E-3</v>
+      </c>
+      <c r="I38" s="78">
+        <v>2.6141923425458745E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="79" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="81">
-        <v>-4.9994889639472153E-4</v>
-      </c>
-      <c r="C38" s="81">
-        <v>7.2377238753403353E-4</v>
-      </c>
-      <c r="D38" s="81">
-        <v>-0.69075431034071155</v>
-      </c>
-      <c r="E38" s="81">
-        <v>0.56111757036035625</v>
-      </c>
-      <c r="F38" s="81">
-        <v>-3.6140901353353175E-3</v>
-      </c>
-      <c r="G38" s="81">
-        <v>2.6141923425458745E-3</v>
-      </c>
-      <c r="H38" s="81">
-        <v>-3.6140901353353175E-3</v>
-      </c>
-      <c r="I38" s="81">
-        <v>2.6141923425458745E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="85">
+      <c r="B39" s="82">
         <v>2.4874585196640524E-3</v>
       </c>
-      <c r="C39" s="85">
-        <v>2.6428430876784066E-4</v>
-      </c>
-      <c r="D39" s="82">
+      <c r="C39" s="82">
+        <v>2.6428430876784099E-4</v>
+      </c>
+      <c r="D39" s="79">
         <v>9.4120552645036106</v>
       </c>
-      <c r="E39" s="82">
+      <c r="E39" s="79">
         <v>1.1100751196302097E-2</v>
       </c>
-      <c r="F39" s="82">
+      <c r="F39" s="79">
         <v>1.3503349171141525E-3</v>
       </c>
-      <c r="G39" s="82">
+      <c r="G39" s="79">
         <v>3.624582122213952E-3</v>
       </c>
-      <c r="H39" s="82">
+      <c r="H39" s="79">
         <v>1.3503349171141525E-3</v>
       </c>
-      <c r="I39" s="82">
+      <c r="I39" s="79">
         <v>3.624582122213952E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="76">
-        <f>Diffrazione!$R$28*(3/2)*10^(-9)/B39</f>
+        <v>47</v>
+      </c>
+      <c r="B41" s="88">
+        <f>'Dati sperimentali e fit'!$R$28*(3/2)*10^(-9)/B39</f>
         <v>3.2074906724786505E-4</v>
       </c>
-      <c r="C41" s="76">
-        <f>(Diffrazione!$R$28*(3/2)*10^(-9)/B39^2)*C39</f>
-        <v>3.4078536327504368E-5</v>
+      <c r="C41" s="88">
+        <f>('Dati sperimentali e fit'!$R$28*(3/2)*10^(-9)/B39^2)*C39</f>
+        <v>3.4078536327504409E-5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
